--- a/docs/RT.usage.xlsx
+++ b/docs/RT.usage.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\clojure\clojure-clr-next\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CB2703-1A45-45BF-A60C-ACAE1D0C61FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8892F55-3093-4DA6-AF7A-9F95038ABEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E18D8260-D884-4B69-BA48-2DA2B587E393}"/>
+    <workbookView xWindow="-28800" yWindow="630" windowWidth="29010" windowHeight="16740" activeTab="2" xr2:uid="{E18D8260-D884-4B69-BA48-2DA2B587E393}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$827</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$F$1:$F$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$F$1:$F$397</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$H$2</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">Sheet2!$I$1</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Sheet2!$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="1126">
   <si>
     <t>Code</t>
   </si>
@@ -3359,6 +3359,69 @@
   </si>
   <si>
     <t>methods</t>
+  </si>
+  <si>
+    <t>RT &amp; Util -- typecasing</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>canSeq</t>
+  </si>
+  <si>
+    <t>iter</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>using RT.seq</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>SupportsRandomAccess</t>
+  </si>
+  <si>
+    <t>nth</t>
+  </si>
+  <si>
+    <t>toArray</t>
+  </si>
+  <si>
+    <t>seqToTypedArray</t>
   </si>
 </sst>
 </file>
@@ -3715,7 +3778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E86EA1D-4FF8-47F7-BA40-1108F7C090DB}">
   <dimension ref="A1:H827"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
@@ -16005,6 +16068,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0102D7C-6CED-41BD-B0A3-DE519DE5A790}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D26C24-9C16-480E-B861-F1395799082E}">
   <dimension ref="A1:I1044633"/>
   <sheetViews>
